--- a/data/trans_dic/P25A_6_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_6_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón)</t>
+          <t>Población con limitación por enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>1,79%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>31,25%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,19</t>
+          <t>1,4; 3,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,5</t>
+          <t>0,98; 3,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,2</t>
+          <t>1,16; 3,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,37; 40,74</t>
+          <t>0,86; 2,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,02</t>
+          <t>1,95; 4,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,95</t>
+          <t>0,82; 3,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,93</t>
+          <t>0,85; 3,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,35; 52,78</t>
+          <t>1,64; 4,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,82</t>
+          <t>0,91; 2,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,1</t>
+          <t>1,5; 4,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,61</t>
+          <t>1,57; 4,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 41,71</t>
+          <t>2,09; 6,07</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 2,98</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,5; 3,22</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 2,62</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 2,92</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 3,77</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 4,22</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>1,64%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>43,74%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>67,67%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,81%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>58,17%</t>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,35</t>
+          <t>1,03; 3,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,81</t>
+          <t>0,85; 3,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,42</t>
+          <t>1,02; 4,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,28; 75,55</t>
+          <t>0,47; 4,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,77</t>
+          <t>0,35; 3,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,4</t>
+          <t>1,55; 6,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,72</t>
+          <t>1,71; 5,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,54; 89,45</t>
+          <t>1,16; 3,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,54</t>
+          <t>1,82; 8,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,78</t>
+          <t>1,76; 9,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,12</t>
+          <t>0,77; 5,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,09; 77,65</t>
+          <t>2,88; 7,87</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 3,83</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 2,83</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 4,95</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 5,86</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 3,29</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 5,47</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>2,72%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>4,88%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,79%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,53%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,49</t>
+          <t>0,94; 9,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 9,26</t>
+          <t>2,4; 9,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,14</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,39</t>
+          <t>0,55; 9,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 9,49</t>
+          <t>0,95; 8,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>0,56; 6,77</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 9,58</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 5,07</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 6,25</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>1,12; 9,48</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 6,63</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 6,64</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 5,26</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 7,38</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,14</t>
+          <t>1,55; 3,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,98</t>
+          <t>1,51; 3,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,95</t>
+          <t>1,3; 2,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,56; 43,28</t>
+          <t>1,02; 2,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,31</t>
+          <t>1,84; 4,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,27</t>
+          <t>1,49; 3,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,75</t>
+          <t>1,64; 3,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,88; 56,29</t>
+          <t>1,65; 3,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,88</t>
+          <t>1,84; 4,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,8</t>
+          <t>1,97; 4,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,03</t>
+          <t>1,58; 3,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,16; 45,53</t>
+          <t>2,75; 5,35</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 3,11</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 2,93</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 3,23</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 3,25</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 3,33</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 4,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>38694</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30092</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32066</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3676</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6993</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27537</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31524</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>47542</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29781</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5879</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5787</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>65448</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>70218</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>77634</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>61847</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9556</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>12780</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>92985</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23132; 64234</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16198; 58505</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19021; 51062</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1962; 6192</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4448; 10824</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13418; 55057</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15234; 60264</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30041; 74905</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16475; 52852</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3560; 9501</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3695; 9601</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37809; 109662</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>46114; 102793</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>52270; 111994</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>42107; 90806</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6650; 13628</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>9315; 17501</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>61561; 145548</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28665</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24145</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30363</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40313</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>43015</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28373</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>47808</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2998</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>63543</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>71680</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>52518</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>78171</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2291</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>103856</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14091; 49082</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11694; 42036</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14040; 62019</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>341; 3409</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>257; 2638</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21384; 86586</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23837; 74980</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15893; 49868</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25170; 114928</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1151; 6142</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>510; 3538</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>40136; 109507</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>46653; 105933</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>33511; 77902</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>47458; 136823</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2241; 8076</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1053; 4601</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>66513; 151541</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14193</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22247</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13374</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13158</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11145</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19958</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14610</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>27351</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>33393</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>24127</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>27984</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3974; 39620</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10142; 39222</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13316</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2344; 41724</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3907; 34707</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2300; 27738</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8473; 39174</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4597; 39027</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13245; 55161</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17755; 55235</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>10649; 43717</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>11699; 61586</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>81551</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>76484</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>66597</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7927</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>81225</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>87697</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>87061</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>97548</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8877</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7144</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>143600</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>169249</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>163545</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>164145</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>13828</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>15071</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>224825</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>53318; 115173</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>52062; 107679</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44672; 102124</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3072; 7630</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5559; 12295</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>51150; 128353</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>58878; 128103</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>59539; 118754</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>66356; 150120</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5955; 13784</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4771; 11046</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>99203; 193149</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>127920; 219200</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>127750; 207010</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>122667; 227701</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>10253; 19602</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>11246; 20131</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>171527; 291179</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
